--- a/Service Criticality Analysis.xlsx
+++ b/Service Criticality Analysis.xlsx
@@ -5,10 +5,10 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raheem-gsu/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raheem-gsu/Documents/Github Portfolio Projects/Excel Projects/Excel-Service-Criticality-Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C179B5DD-103B-114D-B258-91C65DC0F655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB7FA52B-4515-EA49-8B4D-6D36B69FBE24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{EF19B052-42A5-DD48-8A5F-251C05F1B135}"/>
   </bookViews>
@@ -725,7 +725,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -767,7 +767,6 @@
       <alignment horizontal="left" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="60% - Accent3" xfId="3" builtinId="40"/>
@@ -919,7 +918,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Criticality Analysis.xlsx]Question #1!PivotTable2</c:name>
+    <c:name>[Service Criticality Analysis.xlsx]Question #1!PivotTable2</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -1485,7 +1484,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Criticality Analysis.xlsx]Question #2!PivotTable1</c:name>
+    <c:name>[Service Criticality Analysis.xlsx]Question #2!PivotTable1</c:name>
     <c:fmtId val="13"/>
   </c:pivotSource>
   <c:chart>
@@ -1599,8 +1598,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -1686,49 +1684,6 @@
             </a:outerShdw>
           </a:effectLst>
         </c:spPr>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:dLblPos val="outEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="1"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:xForSave val="1"/>
-            </c:ext>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="2"/>
@@ -1736,21 +1691,21 @@
           <a:gradFill rotWithShape="1">
             <a:gsLst>
               <a:gs pos="0">
-                <a:schemeClr val="accent2">
+                <a:schemeClr val="accent1">
                   <a:satMod val="103000"/>
                   <a:lumMod val="102000"/>
                   <a:tint val="94000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="50000">
-                <a:schemeClr val="accent2">
+                <a:schemeClr val="accent1">
                   <a:satMod val="110000"/>
                   <a:lumMod val="100000"/>
                   <a:shade val="100000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="100000">
-                <a:schemeClr val="accent2">
+                <a:schemeClr val="accent1">
                   <a:lumMod val="99000"/>
                   <a:satMod val="120000"/>
                   <a:shade val="78000"/>
@@ -1770,49 +1725,6 @@
             </a:outerShdw>
           </a:effectLst>
         </c:spPr>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:dLblPos val="outEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="1"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:xForSave val="1"/>
-            </c:ext>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="3"/>
@@ -1820,21 +1732,21 @@
           <a:gradFill rotWithShape="1">
             <a:gsLst>
               <a:gs pos="0">
-                <a:schemeClr val="accent3">
+                <a:schemeClr val="accent1">
                   <a:satMod val="103000"/>
                   <a:lumMod val="102000"/>
                   <a:tint val="94000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="50000">
-                <a:schemeClr val="accent3">
+                <a:schemeClr val="accent1">
                   <a:satMod val="110000"/>
                   <a:lumMod val="100000"/>
                   <a:shade val="100000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="100000">
-                <a:schemeClr val="accent3">
+                <a:schemeClr val="accent1">
                   <a:lumMod val="99000"/>
                   <a:satMod val="120000"/>
                   <a:shade val="78000"/>
@@ -1854,49 +1766,6 @@
             </a:outerShdw>
           </a:effectLst>
         </c:spPr>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:dLblPos val="outEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="1"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:xForSave val="1"/>
-            </c:ext>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="4"/>
@@ -1904,21 +1773,21 @@
           <a:gradFill rotWithShape="1">
             <a:gsLst>
               <a:gs pos="0">
-                <a:schemeClr val="accent4">
+                <a:schemeClr val="accent1">
                   <a:satMod val="103000"/>
                   <a:lumMod val="102000"/>
                   <a:tint val="94000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="50000">
-                <a:schemeClr val="accent4">
+                <a:schemeClr val="accent1">
                   <a:satMod val="110000"/>
                   <a:lumMod val="100000"/>
                   <a:shade val="100000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="100000">
-                <a:schemeClr val="accent4">
+                <a:schemeClr val="accent1">
                   <a:lumMod val="99000"/>
                   <a:satMod val="120000"/>
                   <a:shade val="78000"/>
@@ -1938,49 +1807,6 @@
             </a:outerShdw>
           </a:effectLst>
         </c:spPr>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:dLblPos val="outEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="1"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:xForSave val="1"/>
-            </c:ext>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="5"/>
@@ -1988,21 +1814,21 @@
           <a:gradFill rotWithShape="1">
             <a:gsLst>
               <a:gs pos="0">
-                <a:schemeClr val="accent5">
+                <a:schemeClr val="accent1">
                   <a:satMod val="103000"/>
                   <a:lumMod val="102000"/>
                   <a:tint val="94000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="50000">
-                <a:schemeClr val="accent5">
+                <a:schemeClr val="accent1">
                   <a:satMod val="110000"/>
                   <a:lumMod val="100000"/>
                   <a:shade val="100000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="100000">
-                <a:schemeClr val="accent5">
+                <a:schemeClr val="accent1">
                   <a:lumMod val="99000"/>
                   <a:satMod val="120000"/>
                   <a:shade val="78000"/>
@@ -2022,49 +1848,6 @@
             </a:outerShdw>
           </a:effectLst>
         </c:spPr>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:dLblPos val="outEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="1"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:xForSave val="1"/>
-            </c:ext>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -8055,7 +7838,7 @@
   <dimension ref="B1:C14"/>
   <sheetViews>
     <sheetView zoomScale="200" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C14"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -8090,7 +7873,7 @@
       <c r="B6" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6">
         <v>8</v>
       </c>
     </row>
@@ -8098,7 +7881,7 @@
       <c r="B7" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7">
         <v>4</v>
       </c>
     </row>
@@ -8106,7 +7889,7 @@
       <c r="B8" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8">
         <v>4</v>
       </c>
     </row>
@@ -8114,7 +7897,7 @@
       <c r="B9" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9">
         <v>3</v>
       </c>
     </row>
@@ -8122,7 +7905,7 @@
       <c r="B10" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10">
         <v>1</v>
       </c>
     </row>
@@ -8130,7 +7913,7 @@
       <c r="B11" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="C11" s="27">
+      <c r="C11">
         <v>1</v>
       </c>
     </row>
@@ -8138,7 +7921,7 @@
       <c r="B12" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="27">
+      <c r="C12">
         <v>1</v>
       </c>
     </row>
@@ -8146,7 +7929,7 @@
       <c r="B13" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="C13" s="27">
+      <c r="C13">
         <v>1</v>
       </c>
     </row>
@@ -8154,7 +7937,7 @@
       <c r="B14" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="C14" s="27">
+      <c r="C14">
         <v>23</v>
       </c>
     </row>
@@ -8169,7 +7952,7 @@
   <dimension ref="B1:C9"/>
   <sheetViews>
     <sheetView zoomScale="214" zoomScaleNormal="226" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C9"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -8195,7 +7978,7 @@
       <c r="B4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4">
         <v>23</v>
       </c>
     </row>
@@ -8203,7 +7986,7 @@
       <c r="B5" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5">
         <v>17</v>
       </c>
     </row>
@@ -8211,7 +7994,7 @@
       <c r="B6" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6">
         <v>7</v>
       </c>
     </row>
@@ -8219,7 +8002,7 @@
       <c r="B7" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7">
         <v>7</v>
       </c>
     </row>
@@ -8227,7 +8010,7 @@
       <c r="B8" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8">
         <v>6</v>
       </c>
     </row>
@@ -8235,7 +8018,7 @@
       <c r="B9" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9">
         <v>60</v>
       </c>
     </row>

--- a/Service Criticality Analysis.xlsx
+++ b/Service Criticality Analysis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raheem-gsu/Documents/Github Portfolio Projects/Excel Projects/Excel-Service-Criticality-Analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raheem-gsu/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB7FA52B-4515-EA49-8B4D-6D36B69FBE24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73FD8BE-4552-6644-9CAE-BC585C6AA6BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{EF19B052-42A5-DD48-8A5F-251C05F1B135}"/>
   </bookViews>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="16" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -68,9 +68,6 @@
     <t>Constitutional Responsibilities</t>
   </si>
   <si>
-    <t>Constitutional Weight</t>
-  </si>
-  <si>
     <t>Odyssey Courts</t>
   </si>
   <si>
@@ -503,9 +500,6 @@
     <t>Increases efficiency but not completely necessary.</t>
   </si>
   <si>
-    <t>Number of Weights</t>
-  </si>
-  <si>
     <t>Grand Total</t>
   </si>
   <si>
@@ -522,6 +516,12 @@
   </si>
   <si>
     <t>Criticality Title</t>
+  </si>
+  <si>
+    <t>Number of Constitutional Weights</t>
+  </si>
+  <si>
+    <t>Updated Criticality Percentage</t>
   </si>
 </sst>
 </file>
@@ -774,7 +774,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
     <dxf>
       <font>
         <b val="0"/>
@@ -832,6 +832,9 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -849,15 +852,13 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="13" formatCode="0%"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
         <top style="thin">
           <color theme="4"/>
         </top>
         <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -4267,7 +4268,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="45488.670158796296" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="60" xr:uid="{91EA0E4D-22EB-DE41-9972-18F552D0592D}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="45490.363390046296" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="60" xr:uid="{91EA0E4D-22EB-DE41-9972-18F552D0592D}">
   <cacheSource type="worksheet">
     <worksheetSource name="Table5"/>
   </cacheSource>
@@ -4302,16 +4303,12 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="6.6666666666666666E-2" maxValue="0.4"/>
     </cacheField>
     <cacheField name="Constitutional Responsibilities" numFmtId="0">
-      <sharedItems/>
+      <sharedItems containsBlank="1"/>
     </cacheField>
-    <cacheField name="Number of Weights" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="2" count="3">
-        <n v="2"/>
-        <n v="1"/>
-        <m/>
-      </sharedItems>
+    <cacheField name="Number of Constitutional Weights" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="2"/>
     </cacheField>
-    <cacheField name="Constitutional Weight" numFmtId="9">
+    <cacheField name="Updated Criticality Percentage" numFmtId="9">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="6.6666666666666666E-2" maxValue="0.5"/>
     </cacheField>
     <cacheField name="Criticality Score" numFmtId="9">
@@ -4342,7 +4339,7 @@
     <n v="15"/>
     <n v="0.13333333333333333"/>
     <s v="Protection of Life and Property. Protection of confidential information."/>
-    <x v="0"/>
+    <n v="2"/>
     <n v="0.43333333333333335"/>
     <x v="0"/>
   </r>
@@ -4354,7 +4351,7 @@
     <n v="15"/>
     <n v="0.2"/>
     <s v="Protection of Life and Property. Protection of confidential information."/>
-    <x v="0"/>
+    <n v="2"/>
     <n v="0.5"/>
     <x v="0"/>
   </r>
@@ -4366,7 +4363,7 @@
     <n v="15"/>
     <n v="0.33333333333333331"/>
     <s v="Preservation of Life and Property"/>
-    <x v="1"/>
+    <n v="1"/>
     <n v="0.48333333333333328"/>
     <x v="0"/>
   </r>
@@ -4378,7 +4375,7 @@
     <n v="15"/>
     <n v="0.33333333333333331"/>
     <s v="Preservation of Life and Property"/>
-    <x v="1"/>
+    <n v="1"/>
     <n v="0.48333333333333328"/>
     <x v="0"/>
   </r>
@@ -4390,7 +4387,7 @@
     <n v="15"/>
     <n v="0.33333333333333331"/>
     <s v="Protection of Life and Property"/>
-    <x v="1"/>
+    <n v="1"/>
     <n v="0.48333333333333328"/>
     <x v="0"/>
   </r>
@@ -4402,7 +4399,7 @@
     <n v="15"/>
     <n v="0.33333333333333331"/>
     <s v="Protection of Life and Property"/>
-    <x v="1"/>
+    <n v="1"/>
     <n v="0.48333333333333328"/>
     <x v="0"/>
   </r>
@@ -4414,7 +4411,7 @@
     <n v="15"/>
     <n v="0.26666666666666666"/>
     <s v="Protection of Life and Property"/>
-    <x v="1"/>
+    <n v="1"/>
     <n v="0.41666666666666663"/>
     <x v="0"/>
   </r>
@@ -4425,8 +4422,8 @@
     <n v="6"/>
     <n v="15"/>
     <n v="0.4"/>
-    <s v="N/A"/>
-    <x v="2"/>
+    <m/>
+    <m/>
     <n v="0.4"/>
     <x v="0"/>
   </r>
@@ -4437,8 +4434,8 @@
     <n v="6"/>
     <n v="15"/>
     <n v="0.4"/>
-    <s v="N/A"/>
-    <x v="2"/>
+    <m/>
+    <m/>
     <n v="0.4"/>
     <x v="0"/>
   </r>
@@ -4449,8 +4446,8 @@
     <n v="6"/>
     <n v="15"/>
     <n v="0.4"/>
-    <s v="N/A"/>
-    <x v="2"/>
+    <m/>
+    <m/>
     <n v="0.4"/>
     <x v="0"/>
   </r>
@@ -4462,7 +4459,7 @@
     <n v="15"/>
     <n v="0.2"/>
     <s v="Protection of Confidential Information"/>
-    <x v="1"/>
+    <n v="1"/>
     <n v="0.35"/>
     <x v="0"/>
   </r>
@@ -4474,7 +4471,7 @@
     <n v="15"/>
     <n v="6.6666666666666666E-2"/>
     <s v="Protection of Life and Property"/>
-    <x v="1"/>
+    <n v="1"/>
     <n v="0.21666666666666667"/>
     <x v="1"/>
   </r>
@@ -4485,8 +4482,8 @@
     <n v="3"/>
     <n v="15"/>
     <n v="0.2"/>
-    <s v="N/A"/>
-    <x v="2"/>
+    <m/>
+    <m/>
     <n v="0.2"/>
     <x v="1"/>
   </r>
@@ -4497,8 +4494,8 @@
     <n v="3"/>
     <n v="15"/>
     <n v="0.2"/>
-    <s v="N/A"/>
-    <x v="2"/>
+    <m/>
+    <m/>
     <n v="0.2"/>
     <x v="1"/>
   </r>
@@ -4509,8 +4506,8 @@
     <n v="3"/>
     <n v="15"/>
     <n v="0.2"/>
-    <s v="N/A"/>
-    <x v="2"/>
+    <m/>
+    <m/>
     <n v="0.2"/>
     <x v="1"/>
   </r>
@@ -4521,8 +4518,8 @@
     <n v="3"/>
     <n v="15"/>
     <n v="0.2"/>
-    <s v="N/A"/>
-    <x v="2"/>
+    <m/>
+    <m/>
     <n v="0.2"/>
     <x v="1"/>
   </r>
@@ -4533,8 +4530,8 @@
     <n v="3"/>
     <n v="15"/>
     <n v="0.2"/>
-    <s v="N/A"/>
-    <x v="2"/>
+    <m/>
+    <m/>
     <n v="0.2"/>
     <x v="1"/>
   </r>
@@ -4545,8 +4542,8 @@
     <n v="3"/>
     <n v="15"/>
     <n v="0.2"/>
-    <s v="N/A"/>
-    <x v="2"/>
+    <m/>
+    <m/>
     <n v="0.2"/>
     <x v="1"/>
   </r>
@@ -4557,8 +4554,8 @@
     <n v="3"/>
     <n v="15"/>
     <n v="0.2"/>
-    <s v="N/A"/>
-    <x v="2"/>
+    <m/>
+    <m/>
     <n v="0.2"/>
     <x v="1"/>
   </r>
@@ -4569,8 +4566,8 @@
     <n v="3"/>
     <n v="15"/>
     <n v="0.2"/>
-    <s v="N/A"/>
-    <x v="2"/>
+    <m/>
+    <m/>
     <n v="0.2"/>
     <x v="1"/>
   </r>
@@ -4581,8 +4578,8 @@
     <n v="3"/>
     <n v="15"/>
     <n v="0.2"/>
-    <s v="N/A"/>
-    <x v="2"/>
+    <m/>
+    <m/>
     <n v="0.2"/>
     <x v="1"/>
   </r>
@@ -4593,8 +4590,8 @@
     <n v="3"/>
     <n v="15"/>
     <n v="0.2"/>
-    <s v="N/A"/>
-    <x v="2"/>
+    <m/>
+    <m/>
     <n v="0.2"/>
     <x v="1"/>
   </r>
@@ -4605,8 +4602,8 @@
     <n v="2"/>
     <n v="15"/>
     <n v="0.13333333333333333"/>
-    <s v="N/A"/>
-    <x v="2"/>
+    <m/>
+    <m/>
     <n v="0.13333333333333333"/>
     <x v="2"/>
   </r>
@@ -4617,8 +4614,8 @@
     <n v="2"/>
     <n v="15"/>
     <n v="0.13333333333333333"/>
-    <s v="N/A"/>
-    <x v="2"/>
+    <m/>
+    <m/>
     <n v="0.13333333333333333"/>
     <x v="2"/>
   </r>
@@ -4629,8 +4626,8 @@
     <n v="1"/>
     <n v="15"/>
     <n v="6.6666666666666666E-2"/>
-    <s v="N/A"/>
-    <x v="2"/>
+    <m/>
+    <m/>
     <n v="6.6666666666666666E-2"/>
     <x v="3"/>
   </r>
@@ -4641,8 +4638,8 @@
     <n v="1"/>
     <n v="15"/>
     <n v="6.6666666666666666E-2"/>
-    <s v="N/A"/>
-    <x v="2"/>
+    <m/>
+    <m/>
     <n v="6.6666666666666666E-2"/>
     <x v="3"/>
   </r>
@@ -4653,8 +4650,8 @@
     <n v="1"/>
     <n v="15"/>
     <n v="6.6666666666666666E-2"/>
-    <s v="N/A"/>
-    <x v="2"/>
+    <m/>
+    <m/>
     <n v="6.6666666666666666E-2"/>
     <x v="3"/>
   </r>
@@ -4665,8 +4662,8 @@
     <n v="1"/>
     <n v="15"/>
     <n v="6.6666666666666666E-2"/>
-    <s v="N/A"/>
-    <x v="2"/>
+    <m/>
+    <m/>
     <n v="6.6666666666666666E-2"/>
     <x v="3"/>
   </r>
@@ -4677,8 +4674,8 @@
     <n v="1"/>
     <n v="15"/>
     <n v="6.6666666666666666E-2"/>
-    <s v="N/A"/>
-    <x v="2"/>
+    <m/>
+    <m/>
     <n v="6.6666666666666666E-2"/>
     <x v="3"/>
   </r>
@@ -4689,8 +4686,8 @@
     <n v="1"/>
     <n v="15"/>
     <n v="6.6666666666666666E-2"/>
-    <s v="N/A"/>
-    <x v="2"/>
+    <m/>
+    <m/>
     <n v="6.6666666666666666E-2"/>
     <x v="3"/>
   </r>
@@ -4702,7 +4699,7 @@
     <n v="15"/>
     <n v="0.26666666666666666"/>
     <s v="Protection of Confidential Information"/>
-    <x v="1"/>
+    <n v="1"/>
     <n v="0.41666666666666663"/>
     <x v="0"/>
   </r>
@@ -4714,7 +4711,7 @@
     <n v="15"/>
     <n v="0.26666666666666666"/>
     <s v="Protection of Confidential Information"/>
-    <x v="1"/>
+    <n v="1"/>
     <n v="0.41666666666666663"/>
     <x v="0"/>
   </r>
@@ -4726,7 +4723,7 @@
     <n v="15"/>
     <n v="0.2"/>
     <s v="Protection of Confidential Information"/>
-    <x v="1"/>
+    <n v="1"/>
     <n v="0.35"/>
     <x v="0"/>
   </r>
@@ -4738,7 +4735,7 @@
     <n v="15"/>
     <n v="0.2"/>
     <s v="Protection of Confidential Information"/>
-    <x v="1"/>
+    <n v="1"/>
     <n v="0.35"/>
     <x v="0"/>
   </r>
@@ -4750,7 +4747,7 @@
     <n v="15"/>
     <n v="0.13333333333333333"/>
     <s v="Protection of Life and Property"/>
-    <x v="1"/>
+    <n v="1"/>
     <n v="0.28333333333333333"/>
     <x v="0"/>
   </r>
@@ -4762,7 +4759,7 @@
     <n v="15"/>
     <n v="0.13333333333333333"/>
     <s v="Protection of Life and Property"/>
-    <x v="1"/>
+    <n v="1"/>
     <n v="0.28333333333333333"/>
     <x v="0"/>
   </r>
@@ -4773,8 +4770,8 @@
     <n v="4"/>
     <n v="15"/>
     <n v="0.26666666666666666"/>
-    <s v="N/A"/>
-    <x v="2"/>
+    <m/>
+    <m/>
     <n v="0.26666666666666666"/>
     <x v="0"/>
   </r>
@@ -4786,7 +4783,7 @@
     <n v="15"/>
     <n v="6.6666666666666666E-2"/>
     <s v="Protection of Life and Property"/>
-    <x v="1"/>
+    <n v="1"/>
     <n v="0.21666666666666667"/>
     <x v="1"/>
   </r>
@@ -4798,7 +4795,7 @@
     <n v="15"/>
     <n v="6.6666666666666666E-2"/>
     <s v="Protection of Life and Property"/>
-    <x v="1"/>
+    <n v="1"/>
     <n v="0.21666666666666667"/>
     <x v="1"/>
   </r>
@@ -4809,8 +4806,8 @@
     <n v="3"/>
     <n v="15"/>
     <n v="0.2"/>
-    <s v="N/A"/>
-    <x v="2"/>
+    <m/>
+    <m/>
     <n v="0.2"/>
     <x v="1"/>
   </r>
@@ -4821,8 +4818,8 @@
     <n v="3"/>
     <n v="15"/>
     <n v="0.2"/>
-    <s v="N/A"/>
-    <x v="2"/>
+    <m/>
+    <m/>
     <n v="0.2"/>
     <x v="1"/>
   </r>
@@ -4833,8 +4830,8 @@
     <n v="2"/>
     <n v="15"/>
     <n v="0.13333333333333333"/>
-    <s v="N/A"/>
-    <x v="2"/>
+    <m/>
+    <m/>
     <n v="0.13333333333333333"/>
     <x v="2"/>
   </r>
@@ -4845,8 +4842,8 @@
     <n v="2"/>
     <n v="15"/>
     <n v="0.13333333333333333"/>
-    <s v="N/A"/>
-    <x v="2"/>
+    <m/>
+    <m/>
     <n v="0.13333333333333333"/>
     <x v="2"/>
   </r>
@@ -4857,8 +4854,8 @@
     <n v="2"/>
     <n v="15"/>
     <n v="0.13333333333333333"/>
-    <s v="N/A"/>
-    <x v="2"/>
+    <m/>
+    <m/>
     <n v="0.13333333333333333"/>
     <x v="2"/>
   </r>
@@ -4869,8 +4866,8 @@
     <n v="2"/>
     <n v="15"/>
     <n v="0.13333333333333333"/>
-    <s v="N/A"/>
-    <x v="2"/>
+    <m/>
+    <m/>
     <n v="0.13333333333333333"/>
     <x v="2"/>
   </r>
@@ -4881,8 +4878,8 @@
     <n v="2"/>
     <n v="15"/>
     <n v="0.13333333333333333"/>
-    <s v="N/A"/>
-    <x v="2"/>
+    <m/>
+    <m/>
     <n v="0.13333333333333333"/>
     <x v="2"/>
   </r>
@@ -4894,7 +4891,7 @@
     <n v="11"/>
     <n v="0.27272727272727271"/>
     <s v="Protection of Confidential Information"/>
-    <x v="1"/>
+    <n v="1"/>
     <n v="0.42272727272727273"/>
     <x v="0"/>
   </r>
@@ -4906,7 +4903,7 @@
     <n v="11"/>
     <n v="0.27272727272727271"/>
     <s v="Protection of Confidential Information"/>
-    <x v="1"/>
+    <n v="1"/>
     <n v="0.42272727272727273"/>
     <x v="0"/>
   </r>
@@ -4918,7 +4915,7 @@
     <n v="11"/>
     <n v="0.27272727272727271"/>
     <s v="Protection of Confidential Information"/>
-    <x v="1"/>
+    <n v="1"/>
     <n v="0.42272727272727273"/>
     <x v="0"/>
   </r>
@@ -4930,7 +4927,7 @@
     <n v="11"/>
     <n v="0.27272727272727271"/>
     <s v="Inmate Welfare"/>
-    <x v="1"/>
+    <n v="1"/>
     <n v="0.42272727272727273"/>
     <x v="0"/>
   </r>
@@ -4942,7 +4939,7 @@
     <n v="11"/>
     <n v="0.18181818181818182"/>
     <s v="Inmate Welfare"/>
-    <x v="1"/>
+    <n v="1"/>
     <n v="0.33181818181818179"/>
     <x v="0"/>
   </r>
@@ -4954,7 +4951,7 @@
     <n v="11"/>
     <n v="9.0909090909090912E-2"/>
     <s v="Inmate Welfare"/>
-    <x v="1"/>
+    <n v="1"/>
     <n v="0.24090909090909091"/>
     <x v="1"/>
   </r>
@@ -4966,7 +4963,7 @@
     <n v="11"/>
     <n v="9.0909090909090912E-2"/>
     <s v="Inmate Welfare"/>
-    <x v="1"/>
+    <n v="1"/>
     <n v="0.24090909090909091"/>
     <x v="1"/>
   </r>
@@ -4977,8 +4974,8 @@
     <n v="2"/>
     <n v="11"/>
     <n v="0.18181818181818182"/>
-    <s v="N/A"/>
-    <x v="2"/>
+    <m/>
+    <m/>
     <n v="0.18181818181818182"/>
     <x v="4"/>
   </r>
@@ -4989,8 +4986,8 @@
     <n v="2"/>
     <n v="11"/>
     <n v="0.18181818181818182"/>
-    <s v="N/A"/>
-    <x v="2"/>
+    <m/>
+    <m/>
     <n v="0.18181818181818182"/>
     <x v="4"/>
   </r>
@@ -5001,8 +4998,8 @@
     <n v="2"/>
     <n v="11"/>
     <n v="0.18181818181818182"/>
-    <s v="N/A"/>
-    <x v="2"/>
+    <m/>
+    <m/>
     <n v="0.18181818181818182"/>
     <x v="4"/>
   </r>
@@ -5013,8 +5010,8 @@
     <n v="2"/>
     <n v="11"/>
     <n v="0.18181818181818182"/>
-    <s v="N/A"/>
-    <x v="2"/>
+    <m/>
+    <m/>
     <n v="0.18181818181818182"/>
     <x v="4"/>
   </r>
@@ -5025,8 +5022,8 @@
     <n v="2"/>
     <n v="11"/>
     <n v="0.18181818181818182"/>
-    <s v="N/A"/>
-    <x v="2"/>
+    <m/>
+    <m/>
     <n v="0.18181818181818182"/>
     <x v="4"/>
   </r>
@@ -5037,8 +5034,8 @@
     <n v="2"/>
     <n v="11"/>
     <n v="0.18181818181818182"/>
-    <s v="N/A"/>
-    <x v="2"/>
+    <m/>
+    <m/>
     <n v="0.18181818181818182"/>
     <x v="4"/>
   </r>
@@ -5049,8 +5046,8 @@
     <n v="1"/>
     <n v="11"/>
     <n v="9.0909090909090912E-2"/>
-    <s v="N/A"/>
-    <x v="2"/>
+    <m/>
+    <m/>
     <n v="9.0909090909090912E-2"/>
     <x v="3"/>
   </r>
@@ -5058,7 +5055,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A6212BE7-3646-7243-9007-AAE905947C6C}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="13" rowHeaderCaption="Department">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A6212BE7-3646-7243-9007-AAE905947C6C}" name="PivotTable2" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="13" rowHeaderCaption="Department">
   <location ref="B5:C14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -5169,25 +5166,11 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5A88276F-804D-4247-A588-403EA0116699}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="18" rowHeaderCaption="Criticality Title">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5A88276F-804D-4247-A588-403EA0116699}" name="PivotTable1" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="18" rowHeaderCaption="Criticality Title">
   <location ref="B3:C9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="11">
-        <item x="2"/>
-        <item x="8"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="9"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -5328,7 +5311,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{6CBCC53A-B0E8-F74D-96FC-BF9133535572}" name="Table5" displayName="Table5" ref="A1:J61" totalsRowShown="0" headerRowDxfId="4" tableBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{6CBCC53A-B0E8-F74D-96FC-BF9133535572}" name="Table5" displayName="Table5" ref="A1:J61" totalsRowShown="0" headerRowDxfId="5" tableBorderDxfId="4">
   <autoFilter ref="A1:J61" xr:uid="{616E5F3F-8204-C748-82E4-19C92AB32BE3}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{6867FBF2-E270-AF41-B815-5491CE3D7C08}" name="Service"/>
@@ -5336,12 +5319,12 @@
     <tableColumn id="3" xr3:uid="{6F64FFEA-F6B4-8B4D-BAFC-19C5C8E99BC7}" name="Description/Functionality"/>
     <tableColumn id="4" xr3:uid="{CC5EB1D2-5413-5044-93C6-57360045DCB8}" name="# Of Correlated Functions"/>
     <tableColumn id="5" xr3:uid="{DD48C8FB-B36F-9C4C-BEBA-FEA7D26144D7}" name="Total # of Department Functions"/>
-    <tableColumn id="6" xr3:uid="{9957BEDF-97D9-494B-8CE5-DBC5DE3BD4FC}" name="Criticality Percentage" dataDxfId="2" dataCellStyle="Percent">
+    <tableColumn id="6" xr3:uid="{9957BEDF-97D9-494B-8CE5-DBC5DE3BD4FC}" name="Criticality Percentage" dataDxfId="3" dataCellStyle="Percent">
       <calculatedColumnFormula>D2/E2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{44C6B646-1EC8-6A44-9810-3557FF7B9171}" name="Constitutional Responsibilities"/>
-    <tableColumn id="8" xr3:uid="{D2A28F5B-B613-2243-9090-F338CE9CD2FA}" name="Number of Weights"/>
-    <tableColumn id="9" xr3:uid="{DB77ADD6-DBE1-A940-99B0-22319A3FE165}" name="Constitutional Weight" dataDxfId="1" dataCellStyle="Percent">
+    <tableColumn id="7" xr3:uid="{44C6B646-1EC8-6A44-9810-3557FF7B9171}" name="Constitutional Responsibilities" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{D2A28F5B-B613-2243-9090-F338CE9CD2FA}" name="Number of Constitutional Weights"/>
+    <tableColumn id="9" xr3:uid="{DB77ADD6-DBE1-A940-99B0-22319A3FE165}" name="Updated Criticality Percentage" dataDxfId="1" dataCellStyle="Percent">
       <calculatedColumnFormula>IF(ISBLANK(H2), F2, F2+(H2*15%))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{4AFAF0D3-9D15-2D41-AEE6-63080ECEE2E2}" name="Criticality Score" dataDxfId="0" dataCellStyle="Percent">
@@ -5672,7 +5655,7 @@
   <dimension ref="A1:J61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="134" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -5684,7 +5667,9 @@
     <col min="5" max="5" width="28.5703125" customWidth="1"/>
     <col min="6" max="6" width="19.5703125" customWidth="1"/>
     <col min="7" max="7" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="26" customWidth="1"/>
+    <col min="8" max="8" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -5695,7 +5680,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>3</v>
@@ -5710,24 +5695,24 @@
         <v>6</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>7</v>
+        <v>158</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="D2" s="2">
         <v>2</v>
@@ -5740,7 +5725,7 @@
         <v>0.13333333333333333</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H2" s="2">
         <v>2</v>
@@ -5756,13 +5741,13 @@
     </row>
     <row r="3" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="D3" s="2">
         <v>3</v>
@@ -5775,7 +5760,7 @@
         <v>0.2</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H3" s="2">
         <v>2</v>
@@ -5791,13 +5776,13 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="D4" s="2">
         <v>5</v>
@@ -5810,7 +5795,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H4" s="2">
         <v>1</v>
@@ -5826,13 +5811,13 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="D5" s="2">
         <v>5</v>
@@ -5845,7 +5830,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H5" s="2">
         <v>1</v>
@@ -5861,13 +5846,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="D6" s="2">
         <v>5</v>
@@ -5880,7 +5865,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H6" s="2">
         <v>1</v>
@@ -5896,13 +5881,13 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="D7" s="2">
         <v>5</v>
@@ -5915,7 +5900,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H7" s="2">
         <v>1</v>
@@ -5931,13 +5916,13 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="D8" s="2">
         <v>4</v>
@@ -5950,7 +5935,7 @@
         <v>0.26666666666666666</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H8" s="2">
         <v>1</v>
@@ -5966,13 +5951,13 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="D9" s="2">
         <v>6</v>
@@ -5997,13 +5982,13 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="D10" s="2">
         <v>6</v>
@@ -6028,13 +6013,13 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="D11" s="2">
         <v>6</v>
@@ -6059,13 +6044,13 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="D12" s="2">
         <v>3</v>
@@ -6078,7 +6063,7 @@
         <v>0.2</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H12" s="2">
         <v>1</v>
@@ -6094,13 +6079,13 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="D13" s="2">
         <v>1</v>
@@ -6113,7 +6098,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H13" s="2">
         <v>1</v>
@@ -6129,13 +6114,13 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="D14" s="2">
         <v>3</v>
@@ -6160,13 +6145,13 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="D15" s="2">
         <v>3</v>
@@ -6191,13 +6176,13 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="D16" s="2">
         <v>3</v>
@@ -6222,13 +6207,13 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="D17" s="2">
         <v>3</v>
@@ -6253,13 +6238,13 @@
     </row>
     <row r="18" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="D18" s="2">
         <v>3</v>
@@ -6284,13 +6269,13 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="D19" s="2">
         <v>3</v>
@@ -6315,13 +6300,13 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="D20" s="2">
         <v>3</v>
@@ -6346,13 +6331,13 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="D21" s="2">
         <v>3</v>
@@ -6377,13 +6362,13 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="D22" s="2">
         <v>3</v>
@@ -6408,13 +6393,13 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="D23" s="2">
         <v>3</v>
@@ -6439,13 +6424,13 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="D24" s="2">
         <v>2</v>
@@ -6470,13 +6455,13 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="D25" s="2">
         <v>2</v>
@@ -6501,13 +6486,13 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="D26" s="2">
         <v>1</v>
@@ -6532,13 +6517,13 @@
     </row>
     <row r="27" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="D27" s="2">
         <v>1</v>
@@ -6563,13 +6548,13 @@
     </row>
     <row r="28" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="D28" s="2">
         <v>1</v>
@@ -6594,13 +6579,13 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="D29" s="2">
         <v>1</v>
@@ -6625,13 +6610,13 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="D30" s="2">
         <v>1</v>
@@ -6656,13 +6641,13 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="D31" s="4">
         <v>1</v>
@@ -6687,13 +6672,13 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="D32" s="2">
         <v>4</v>
@@ -6706,7 +6691,7 @@
         <v>0.26666666666666666</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H32" s="2">
         <v>1</v>
@@ -6722,13 +6707,13 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="D33" s="2">
         <v>4</v>
@@ -6741,7 +6726,7 @@
         <v>0.26666666666666666</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H33" s="2">
         <v>1</v>
@@ -6757,13 +6742,13 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="D34" s="2">
         <v>3</v>
@@ -6776,7 +6761,7 @@
         <v>0.2</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H34" s="2">
         <v>1</v>
@@ -6792,13 +6777,13 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="D35" s="2">
         <v>3</v>
@@ -6811,7 +6796,7 @@
         <v>0.2</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H35" s="2">
         <v>1</v>
@@ -6827,13 +6812,13 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="D36" s="2">
         <v>2</v>
@@ -6846,7 +6831,7 @@
         <v>0.13333333333333333</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H36" s="2">
         <v>1</v>
@@ -6862,13 +6847,13 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="D37" s="2">
         <v>2</v>
@@ -6881,7 +6866,7 @@
         <v>0.13333333333333333</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H37" s="2">
         <v>1</v>
@@ -6897,13 +6882,13 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D38" s="2">
         <v>4</v>
@@ -6928,13 +6913,13 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="D39" s="2">
         <v>1</v>
@@ -6947,7 +6932,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H39" s="2">
         <v>1</v>
@@ -6963,13 +6948,13 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="D40" s="2">
         <v>1</v>
@@ -6982,7 +6967,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H40" s="2">
         <v>1</v>
@@ -6998,13 +6983,13 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="D41" s="2">
         <v>3</v>
@@ -7029,13 +7014,13 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="D42" s="2">
         <v>3</v>
@@ -7060,13 +7045,13 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="D43" s="2">
         <v>2</v>
@@ -7091,13 +7076,13 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="D44" s="2">
         <v>2</v>
@@ -7122,13 +7107,13 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="D45" s="2">
         <v>2</v>
@@ -7153,13 +7138,13 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>128</v>
       </c>
       <c r="D46" s="4">
         <v>2</v>
@@ -7184,13 +7169,13 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>128</v>
       </c>
       <c r="D47" s="4">
         <v>2</v>
@@ -7215,13 +7200,13 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" t="s">
         <v>8</v>
-      </c>
-      <c r="B48" t="s">
-        <v>13</v>
-      </c>
-      <c r="C48" t="s">
-        <v>9</v>
       </c>
       <c r="D48">
         <v>3</v>
@@ -7234,7 +7219,7 @@
         <v>0.27272727272727271</v>
       </c>
       <c r="G48" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -7250,13 +7235,13 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" t="s">
+        <v>143</v>
+      </c>
+      <c r="C49" t="s">
         <v>8</v>
-      </c>
-      <c r="B49" t="s">
-        <v>144</v>
-      </c>
-      <c r="C49" t="s">
-        <v>9</v>
       </c>
       <c r="D49">
         <v>3</v>
@@ -7269,7 +7254,7 @@
         <v>0.27272727272727271</v>
       </c>
       <c r="G49" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -7285,13 +7270,13 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" t="s">
+        <v>144</v>
+      </c>
+      <c r="C50" t="s">
         <v>8</v>
-      </c>
-      <c r="B50" t="s">
-        <v>145</v>
-      </c>
-      <c r="C50" t="s">
-        <v>9</v>
       </c>
       <c r="D50">
         <v>3</v>
@@ -7304,7 +7289,7 @@
         <v>0.27272727272727271</v>
       </c>
       <c r="G50" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -7320,13 +7305,13 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51" t="s">
         <v>12</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>13</v>
-      </c>
-      <c r="C51" t="s">
-        <v>14</v>
       </c>
       <c r="D51">
         <v>3</v>
@@ -7339,7 +7324,7 @@
         <v>0.27272727272727271</v>
       </c>
       <c r="G51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -7355,13 +7340,13 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" t="s">
         <v>16</v>
-      </c>
-      <c r="B52" t="s">
-        <v>13</v>
-      </c>
-      <c r="C52" t="s">
-        <v>17</v>
       </c>
       <c r="D52">
         <v>2</v>
@@ -7374,7 +7359,7 @@
         <v>0.18181818181818182</v>
       </c>
       <c r="G52" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H52">
         <v>1</v>
@@ -7390,13 +7375,13 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>17</v>
+      </c>
+      <c r="B53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" t="s">
         <v>18</v>
-      </c>
-      <c r="B53" t="s">
-        <v>13</v>
-      </c>
-      <c r="C53" t="s">
-        <v>19</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -7409,7 +7394,7 @@
         <v>9.0909090909090912E-2</v>
       </c>
       <c r="G53" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -7425,13 +7410,13 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>20</v>
+      </c>
+      <c r="B54" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" t="s">
         <v>21</v>
-      </c>
-      <c r="B54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C54" t="s">
-        <v>22</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -7444,7 +7429,7 @@
         <v>9.0909090909090912E-2</v>
       </c>
       <c r="G54" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -7460,13 +7445,13 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>22</v>
+      </c>
+      <c r="B55" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" t="s">
         <v>23</v>
-      </c>
-      <c r="B55" t="s">
-        <v>13</v>
-      </c>
-      <c r="C55" t="s">
-        <v>24</v>
       </c>
       <c r="D55">
         <v>2</v>
@@ -7489,13 +7474,13 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>25</v>
+      </c>
+      <c r="B56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" t="s">
         <v>26</v>
-      </c>
-      <c r="B56" t="s">
-        <v>13</v>
-      </c>
-      <c r="C56" t="s">
-        <v>27</v>
       </c>
       <c r="D56">
         <v>2</v>
@@ -7518,13 +7503,13 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>27</v>
+      </c>
+      <c r="B57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" t="s">
         <v>28</v>
-      </c>
-      <c r="B57" t="s">
-        <v>13</v>
-      </c>
-      <c r="C57" t="s">
-        <v>29</v>
       </c>
       <c r="D57">
         <v>2</v>
@@ -7547,13 +7532,13 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>29</v>
+      </c>
+      <c r="B58" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" t="s">
         <v>30</v>
-      </c>
-      <c r="B58" t="s">
-        <v>13</v>
-      </c>
-      <c r="C58" t="s">
-        <v>31</v>
       </c>
       <c r="D58">
         <v>2</v>
@@ -7576,13 +7561,13 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>31</v>
+      </c>
+      <c r="B59" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" t="s">
         <v>32</v>
-      </c>
-      <c r="B59" t="s">
-        <v>13</v>
-      </c>
-      <c r="C59" t="s">
-        <v>33</v>
       </c>
       <c r="D59">
         <v>2</v>
@@ -7605,13 +7590,13 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>33</v>
+      </c>
+      <c r="B60" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" t="s">
         <v>34</v>
-      </c>
-      <c r="B60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C60" t="s">
-        <v>35</v>
       </c>
       <c r="D60">
         <v>2</v>
@@ -7634,13 +7619,13 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>35</v>
+      </c>
+      <c r="B61" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" t="s">
         <v>36</v>
-      </c>
-      <c r="B61" t="s">
-        <v>13</v>
-      </c>
-      <c r="C61" t="s">
-        <v>37</v>
       </c>
       <c r="D61">
         <v>1</v>
@@ -7690,7 +7675,7 @@
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
       <c r="D1" s="25" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E1" s="21"/>
       <c r="F1" s="21"/>
@@ -7698,19 +7683,19 @@
     </row>
     <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="C2" s="11" t="s">
         <v>131</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>132</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F2" s="23"/>
       <c r="G2" s="24"/>
@@ -7720,19 +7705,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E3" s="12">
         <v>0.25</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G3" s="12"/>
     </row>
@@ -7741,19 +7726,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E4" s="7">
         <v>0.2</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G4" s="6">
         <v>0.24990000000000001</v>
@@ -7764,19 +7749,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E5" s="12">
         <v>0.15</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G5" s="14">
         <v>0.19989999999999999</v>
@@ -7787,19 +7772,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E6" s="7">
         <v>0.1</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G6" s="6">
         <v>0.14990000000000001</v>
@@ -7810,19 +7795,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>139</v>
-      </c>
       <c r="D7" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E7" s="12">
         <v>0</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G7" s="14">
         <v>9.9900000000000003E-2</v>
@@ -7838,27 +7823,26 @@
   <dimension ref="B1:C14"/>
   <sheetViews>
     <sheetView zoomScale="200" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="21" x14ac:dyDescent="0.25">
       <c r="B1" s="26" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
@@ -7866,12 +7850,12 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -7879,7 +7863,7 @@
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -7887,7 +7871,7 @@
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -7895,7 +7879,7 @@
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -7903,7 +7887,7 @@
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -7911,7 +7895,7 @@
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -7919,7 +7903,7 @@
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -7927,7 +7911,7 @@
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -7935,7 +7919,7 @@
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C14">
         <v>23</v>
@@ -7957,26 +7941,26 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="21" x14ac:dyDescent="0.25">
       <c r="B1" s="26" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="19" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>23</v>
@@ -7984,7 +7968,7 @@
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5">
         <v>17</v>
@@ -7992,7 +7976,7 @@
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C6">
         <v>7</v>
@@ -8000,7 +7984,7 @@
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7">
         <v>7</v>
@@ -8008,7 +7992,7 @@
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -8016,7 +8000,7 @@
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C9">
         <v>60</v>

--- a/Service Criticality Analysis.xlsx
+++ b/Service Criticality Analysis.xlsx
@@ -5,10 +5,10 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raheem-gsu/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raheem-gsu/Documents/Github Portfolio Projects/Excel Projects/Excel-Service-Criticality-Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73FD8BE-4552-6644-9CAE-BC585C6AA6BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F1AC90-2BC9-8045-9F53-77FBB8986AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{EF19B052-42A5-DD48-8A5F-251C05F1B135}"/>
   </bookViews>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="16" r:id="rId5"/>
+    <pivotCache cacheId="10" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -62,9 +62,6 @@
     <t>Total # of Department Functions</t>
   </si>
   <si>
-    <t>Criticality Percentage</t>
-  </si>
-  <si>
     <t>Constitutional Responsibilities</t>
   </si>
   <si>
@@ -521,7 +518,10 @@
     <t>Number of Constitutional Weights</t>
   </si>
   <si>
-    <t>Updated Criticality Percentage</t>
+    <t>Departmental Criticality Percentage</t>
+  </si>
+  <si>
+    <t>Final Criticality Percentage</t>
   </si>
 </sst>
 </file>
@@ -725,7 +725,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -767,6 +767,7 @@
       <alignment horizontal="left" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="60% - Accent3" xfId="3" builtinId="40"/>
@@ -4268,7 +4269,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="45490.363390046296" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="60" xr:uid="{91EA0E4D-22EB-DE41-9972-18F552D0592D}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="45490.411814814812" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="60" xr:uid="{91EA0E4D-22EB-DE41-9972-18F552D0592D}">
   <cacheSource type="worksheet">
     <worksheetSource name="Table5"/>
   </cacheSource>
@@ -4299,7 +4300,7 @@
     <cacheField name="Total # of Department Functions" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="11" maxValue="15"/>
     </cacheField>
-    <cacheField name="Criticality Percentage" numFmtId="9">
+    <cacheField name="Departmental Criticality Percentage" numFmtId="9">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="6.6666666666666666E-2" maxValue="0.4"/>
     </cacheField>
     <cacheField name="Constitutional Responsibilities" numFmtId="0">
@@ -4308,7 +4309,7 @@
     <cacheField name="Number of Constitutional Weights" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="2"/>
     </cacheField>
-    <cacheField name="Updated Criticality Percentage" numFmtId="9">
+    <cacheField name="Final Criticality Percentage" numFmtId="9">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="6.6666666666666666E-2" maxValue="0.5"/>
     </cacheField>
     <cacheField name="Criticality Score" numFmtId="9">
@@ -5055,7 +5056,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A6212BE7-3646-7243-9007-AAE905947C6C}" name="PivotTable2" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="13" rowHeaderCaption="Department">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A6212BE7-3646-7243-9007-AAE905947C6C}" name="PivotTable2" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="13" rowHeaderCaption="Department">
   <location ref="B5:C14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -5166,7 +5167,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5A88276F-804D-4247-A588-403EA0116699}" name="PivotTable1" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="18" rowHeaderCaption="Criticality Title">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5A88276F-804D-4247-A588-403EA0116699}" name="PivotTable1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="18" rowHeaderCaption="Criticality Title">
   <location ref="B3:C9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -5319,12 +5320,12 @@
     <tableColumn id="3" xr3:uid="{6F64FFEA-F6B4-8B4D-BAFC-19C5C8E99BC7}" name="Description/Functionality"/>
     <tableColumn id="4" xr3:uid="{CC5EB1D2-5413-5044-93C6-57360045DCB8}" name="# Of Correlated Functions"/>
     <tableColumn id="5" xr3:uid="{DD48C8FB-B36F-9C4C-BEBA-FEA7D26144D7}" name="Total # of Department Functions"/>
-    <tableColumn id="6" xr3:uid="{9957BEDF-97D9-494B-8CE5-DBC5DE3BD4FC}" name="Criticality Percentage" dataDxfId="3" dataCellStyle="Percent">
+    <tableColumn id="6" xr3:uid="{9957BEDF-97D9-494B-8CE5-DBC5DE3BD4FC}" name="Departmental Criticality Percentage" dataDxfId="3" dataCellStyle="Percent">
       <calculatedColumnFormula>D2/E2</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{44C6B646-1EC8-6A44-9810-3557FF7B9171}" name="Constitutional Responsibilities" dataDxfId="2"/>
     <tableColumn id="8" xr3:uid="{D2A28F5B-B613-2243-9090-F338CE9CD2FA}" name="Number of Constitutional Weights"/>
-    <tableColumn id="9" xr3:uid="{DB77ADD6-DBE1-A940-99B0-22319A3FE165}" name="Updated Criticality Percentage" dataDxfId="1" dataCellStyle="Percent">
+    <tableColumn id="9" xr3:uid="{DB77ADD6-DBE1-A940-99B0-22319A3FE165}" name="Final Criticality Percentage" dataDxfId="1" dataCellStyle="Percent">
       <calculatedColumnFormula>IF(ISBLANK(H2), F2, F2+(H2*15%))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{4AFAF0D3-9D15-2D41-AEE6-63080ECEE2E2}" name="Criticality Score" dataDxfId="0" dataCellStyle="Percent">
@@ -5665,10 +5666,10 @@
     <col min="3" max="3" width="23.42578125" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
     <col min="5" max="5" width="28.5703125" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" customWidth="1"/>
+    <col min="6" max="6" width="33.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="32.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="26" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5680,7 +5681,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>3</v>
@@ -5689,30 +5690,30 @@
         <v>4</v>
       </c>
       <c r="F1" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
-        <v>6</v>
-      </c>
       <c r="H1" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I1" s="9" t="s">
         <v>158</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="D2" s="2">
         <v>2</v>
@@ -5725,7 +5726,7 @@
         <v>0.13333333333333333</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H2" s="2">
         <v>2</v>
@@ -5741,13 +5742,13 @@
     </row>
     <row r="3" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="D3" s="2">
         <v>3</v>
@@ -5760,7 +5761,7 @@
         <v>0.2</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H3" s="2">
         <v>2</v>
@@ -5776,13 +5777,13 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="D4" s="2">
         <v>5</v>
@@ -5795,7 +5796,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H4" s="2">
         <v>1</v>
@@ -5811,13 +5812,13 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="D5" s="2">
         <v>5</v>
@@ -5830,7 +5831,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H5" s="2">
         <v>1</v>
@@ -5846,13 +5847,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="D6" s="2">
         <v>5</v>
@@ -5865,7 +5866,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H6" s="2">
         <v>1</v>
@@ -5881,13 +5882,13 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="D7" s="2">
         <v>5</v>
@@ -5900,7 +5901,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H7" s="2">
         <v>1</v>
@@ -5916,13 +5917,13 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="D8" s="2">
         <v>4</v>
@@ -5935,7 +5936,7 @@
         <v>0.26666666666666666</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H8" s="2">
         <v>1</v>
@@ -5951,13 +5952,13 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="D9" s="2">
         <v>6</v>
@@ -5982,13 +5983,13 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="D10" s="2">
         <v>6</v>
@@ -6013,13 +6014,13 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="D11" s="2">
         <v>6</v>
@@ -6044,13 +6045,13 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="D12" s="2">
         <v>3</v>
@@ -6063,7 +6064,7 @@
         <v>0.2</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H12" s="2">
         <v>1</v>
@@ -6079,13 +6080,13 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="D13" s="2">
         <v>1</v>
@@ -6098,7 +6099,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H13" s="2">
         <v>1</v>
@@ -6114,13 +6115,13 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="D14" s="2">
         <v>3</v>
@@ -6145,13 +6146,13 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="D15" s="2">
         <v>3</v>
@@ -6176,13 +6177,13 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="D16" s="2">
         <v>3</v>
@@ -6207,13 +6208,13 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="D17" s="2">
         <v>3</v>
@@ -6238,13 +6239,13 @@
     </row>
     <row r="18" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="D18" s="2">
         <v>3</v>
@@ -6269,13 +6270,13 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="D19" s="2">
         <v>3</v>
@@ -6300,13 +6301,13 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="D20" s="2">
         <v>3</v>
@@ -6331,13 +6332,13 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="D21" s="2">
         <v>3</v>
@@ -6362,13 +6363,13 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="D22" s="2">
         <v>3</v>
@@ -6393,13 +6394,13 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="D23" s="2">
         <v>3</v>
@@ -6424,13 +6425,13 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="D24" s="2">
         <v>2</v>
@@ -6455,13 +6456,13 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="D25" s="2">
         <v>2</v>
@@ -6486,13 +6487,13 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="D26" s="2">
         <v>1</v>
@@ -6517,13 +6518,13 @@
     </row>
     <row r="27" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="D27" s="2">
         <v>1</v>
@@ -6548,13 +6549,13 @@
     </row>
     <row r="28" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="D28" s="2">
         <v>1</v>
@@ -6579,13 +6580,13 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="D29" s="2">
         <v>1</v>
@@ -6610,13 +6611,13 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="D30" s="2">
         <v>1</v>
@@ -6641,13 +6642,13 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="D31" s="4">
         <v>1</v>
@@ -6672,13 +6673,13 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="D32" s="2">
         <v>4</v>
@@ -6691,7 +6692,7 @@
         <v>0.26666666666666666</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H32" s="2">
         <v>1</v>
@@ -6707,13 +6708,13 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="D33" s="2">
         <v>4</v>
@@ -6726,7 +6727,7 @@
         <v>0.26666666666666666</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H33" s="2">
         <v>1</v>
@@ -6742,13 +6743,13 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="D34" s="2">
         <v>3</v>
@@ -6761,7 +6762,7 @@
         <v>0.2</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H34" s="2">
         <v>1</v>
@@ -6777,13 +6778,13 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="D35" s="2">
         <v>3</v>
@@ -6796,7 +6797,7 @@
         <v>0.2</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H35" s="2">
         <v>1</v>
@@ -6812,13 +6813,13 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="D36" s="2">
         <v>2</v>
@@ -6831,7 +6832,7 @@
         <v>0.13333333333333333</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H36" s="2">
         <v>1</v>
@@ -6847,13 +6848,13 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="D37" s="2">
         <v>2</v>
@@ -6866,7 +6867,7 @@
         <v>0.13333333333333333</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H37" s="2">
         <v>1</v>
@@ -6882,13 +6883,13 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D38" s="2">
         <v>4</v>
@@ -6913,13 +6914,13 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="D39" s="2">
         <v>1</v>
@@ -6932,7 +6933,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H39" s="2">
         <v>1</v>
@@ -6948,13 +6949,13 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="D40" s="2">
         <v>1</v>
@@ -6967,7 +6968,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H40" s="2">
         <v>1</v>
@@ -6983,13 +6984,13 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="D41" s="2">
         <v>3</v>
@@ -7014,13 +7015,13 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="D42" s="2">
         <v>3</v>
@@ -7045,13 +7046,13 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="D43" s="2">
         <v>2</v>
@@ -7076,13 +7077,13 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="D44" s="2">
         <v>2</v>
@@ -7107,13 +7108,13 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="D45" s="2">
         <v>2</v>
@@ -7138,13 +7139,13 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>127</v>
       </c>
       <c r="D46" s="4">
         <v>2</v>
@@ -7169,13 +7170,13 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>127</v>
       </c>
       <c r="D47" s="4">
         <v>2</v>
@@ -7200,13 +7201,13 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" t="s">
         <v>7</v>
-      </c>
-      <c r="B48" t="s">
-        <v>12</v>
-      </c>
-      <c r="C48" t="s">
-        <v>8</v>
       </c>
       <c r="D48">
         <v>3</v>
@@ -7219,7 +7220,7 @@
         <v>0.27272727272727271</v>
       </c>
       <c r="G48" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -7235,13 +7236,13 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" t="s">
+        <v>142</v>
+      </c>
+      <c r="C49" t="s">
         <v>7</v>
-      </c>
-      <c r="B49" t="s">
-        <v>143</v>
-      </c>
-      <c r="C49" t="s">
-        <v>8</v>
       </c>
       <c r="D49">
         <v>3</v>
@@ -7254,7 +7255,7 @@
         <v>0.27272727272727271</v>
       </c>
       <c r="G49" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -7270,13 +7271,13 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" t="s">
+        <v>143</v>
+      </c>
+      <c r="C50" t="s">
         <v>7</v>
-      </c>
-      <c r="B50" t="s">
-        <v>144</v>
-      </c>
-      <c r="C50" t="s">
-        <v>8</v>
       </c>
       <c r="D50">
         <v>3</v>
@@ -7289,7 +7290,7 @@
         <v>0.27272727272727271</v>
       </c>
       <c r="G50" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -7305,13 +7306,13 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" t="s">
         <v>11</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>12</v>
-      </c>
-      <c r="C51" t="s">
-        <v>13</v>
       </c>
       <c r="D51">
         <v>3</v>
@@ -7324,7 +7325,7 @@
         <v>0.27272727272727271</v>
       </c>
       <c r="G51" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -7340,13 +7341,13 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" t="s">
         <v>15</v>
-      </c>
-      <c r="B52" t="s">
-        <v>12</v>
-      </c>
-      <c r="C52" t="s">
-        <v>16</v>
       </c>
       <c r="D52">
         <v>2</v>
@@ -7359,7 +7360,7 @@
         <v>0.18181818181818182</v>
       </c>
       <c r="G52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H52">
         <v>1</v>
@@ -7375,13 +7376,13 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>16</v>
+      </c>
+      <c r="B53" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" t="s">
         <v>17</v>
-      </c>
-      <c r="B53" t="s">
-        <v>12</v>
-      </c>
-      <c r="C53" t="s">
-        <v>18</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -7394,7 +7395,7 @@
         <v>9.0909090909090912E-2</v>
       </c>
       <c r="G53" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -7410,13 +7411,13 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>19</v>
+      </c>
+      <c r="B54" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" t="s">
         <v>20</v>
-      </c>
-      <c r="B54" t="s">
-        <v>12</v>
-      </c>
-      <c r="C54" t="s">
-        <v>21</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -7429,7 +7430,7 @@
         <v>9.0909090909090912E-2</v>
       </c>
       <c r="G54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -7445,13 +7446,13 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>21</v>
+      </c>
+      <c r="B55" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" t="s">
         <v>22</v>
-      </c>
-      <c r="B55" t="s">
-        <v>12</v>
-      </c>
-      <c r="C55" t="s">
-        <v>23</v>
       </c>
       <c r="D55">
         <v>2</v>
@@ -7474,13 +7475,13 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>24</v>
+      </c>
+      <c r="B56" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" t="s">
         <v>25</v>
-      </c>
-      <c r="B56" t="s">
-        <v>12</v>
-      </c>
-      <c r="C56" t="s">
-        <v>26</v>
       </c>
       <c r="D56">
         <v>2</v>
@@ -7503,13 +7504,13 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>26</v>
+      </c>
+      <c r="B57" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" t="s">
         <v>27</v>
-      </c>
-      <c r="B57" t="s">
-        <v>12</v>
-      </c>
-      <c r="C57" t="s">
-        <v>28</v>
       </c>
       <c r="D57">
         <v>2</v>
@@ -7532,13 +7533,13 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>28</v>
+      </c>
+      <c r="B58" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" t="s">
         <v>29</v>
-      </c>
-      <c r="B58" t="s">
-        <v>12</v>
-      </c>
-      <c r="C58" t="s">
-        <v>30</v>
       </c>
       <c r="D58">
         <v>2</v>
@@ -7561,13 +7562,13 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>30</v>
+      </c>
+      <c r="B59" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" t="s">
         <v>31</v>
-      </c>
-      <c r="B59" t="s">
-        <v>12</v>
-      </c>
-      <c r="C59" t="s">
-        <v>32</v>
       </c>
       <c r="D59">
         <v>2</v>
@@ -7590,13 +7591,13 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>32</v>
+      </c>
+      <c r="B60" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60" t="s">
         <v>33</v>
-      </c>
-      <c r="B60" t="s">
-        <v>12</v>
-      </c>
-      <c r="C60" t="s">
-        <v>34</v>
       </c>
       <c r="D60">
         <v>2</v>
@@ -7619,13 +7620,13 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>34</v>
+      </c>
+      <c r="B61" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" t="s">
         <v>35</v>
-      </c>
-      <c r="B61" t="s">
-        <v>12</v>
-      </c>
-      <c r="C61" t="s">
-        <v>36</v>
       </c>
       <c r="D61">
         <v>1</v>
@@ -7675,7 +7676,7 @@
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
       <c r="D1" s="25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E1" s="21"/>
       <c r="F1" s="21"/>
@@ -7683,19 +7684,19 @@
     </row>
     <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="C2" s="11" t="s">
         <v>130</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>131</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F2" s="23"/>
       <c r="G2" s="24"/>
@@ -7705,19 +7706,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E3" s="12">
         <v>0.25</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G3" s="12"/>
     </row>
@@ -7726,19 +7727,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E4" s="7">
         <v>0.2</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G4" s="6">
         <v>0.24990000000000001</v>
@@ -7749,19 +7750,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E5" s="12">
         <v>0.15</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G5" s="14">
         <v>0.19989999999999999</v>
@@ -7772,19 +7773,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E6" s="7">
         <v>0.1</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G6" s="6">
         <v>0.14990000000000001</v>
@@ -7795,19 +7796,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>138</v>
-      </c>
       <c r="D7" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E7" s="12">
         <v>0</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G7" s="14">
         <v>9.9900000000000003E-2</v>
@@ -7834,15 +7835,15 @@
   <sheetData>
     <row r="1" spans="2:3" ht="21" x14ac:dyDescent="0.25">
       <c r="B1" s="26" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
@@ -7850,78 +7851,78 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6">
+        <v>39</v>
+      </c>
+      <c r="C6" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7">
+        <v>11</v>
+      </c>
+      <c r="C7" s="27">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="C8">
+        <v>101</v>
+      </c>
+      <c r="C8" s="27">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="C9">
+        <v>96</v>
+      </c>
+      <c r="C9" s="27">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="C10">
+        <v>106</v>
+      </c>
+      <c r="C10" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="C11">
+        <v>142</v>
+      </c>
+      <c r="C11" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12">
+        <v>42</v>
+      </c>
+      <c r="C12" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="C13">
+        <v>143</v>
+      </c>
+      <c r="C13" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="C14">
+        <v>150</v>
+      </c>
+      <c r="C14" s="27">
         <v>23</v>
       </c>
     </row>
@@ -7936,7 +7937,7 @@
   <dimension ref="B1:C9"/>
   <sheetViews>
     <sheetView zoomScale="214" zoomScaleNormal="226" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -7947,62 +7948,62 @@
   <sheetData>
     <row r="1" spans="2:3" ht="21" x14ac:dyDescent="0.25">
       <c r="B1" s="26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4">
+        <v>9</v>
+      </c>
+      <c r="C4" s="27">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5">
+        <v>18</v>
+      </c>
+      <c r="C5" s="27">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="C6">
+        <v>137</v>
+      </c>
+      <c r="C6" s="27">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7">
+        <v>36</v>
+      </c>
+      <c r="C7" s="27">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8">
+        <v>23</v>
+      </c>
+      <c r="C8" s="27">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="C9">
+        <v>150</v>
+      </c>
+      <c r="C9" s="27">
         <v>60</v>
       </c>
     </row>

--- a/Service Criticality Analysis.xlsx
+++ b/Service Criticality Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raheem-gsu/Documents/Github Portfolio Projects/Excel Projects/Excel-Service-Criticality-Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F1AC90-2BC9-8045-9F53-77FBB8986AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8DF3E75-B1B0-234C-90BC-4D35A4BA10C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{EF19B052-42A5-DD48-8A5F-251C05F1B135}"/>
   </bookViews>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="10" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -725,7 +725,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -767,7 +767,6 @@
       <alignment horizontal="left" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="60% - Accent3" xfId="3" builtinId="40"/>
@@ -3495,8 +3494,8 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>946150</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3512,7 +3511,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1230166" y="3519439"/>
-          <a:ext cx="4351484" cy="3592561"/>
+          <a:ext cx="3957784" cy="4049761"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5056,7 +5055,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A6212BE7-3646-7243-9007-AAE905947C6C}" name="PivotTable2" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="13" rowHeaderCaption="Department">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A6212BE7-3646-7243-9007-AAE905947C6C}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="13" rowHeaderCaption="Department">
   <location ref="B5:C14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -5167,7 +5166,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5A88276F-804D-4247-A588-403EA0116699}" name="PivotTable1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="18" rowHeaderCaption="Criticality Title">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5A88276F-804D-4247-A588-403EA0116699}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="18" rowHeaderCaption="Criticality Title">
   <location ref="B3:C9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -7824,7 +7823,7 @@
   <dimension ref="B1:C14"/>
   <sheetViews>
     <sheetView zoomScale="200" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -7858,7 +7857,7 @@
       <c r="B6" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6">
         <v>8</v>
       </c>
     </row>
@@ -7866,7 +7865,7 @@
       <c r="B7" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7">
         <v>4</v>
       </c>
     </row>
@@ -7874,7 +7873,7 @@
       <c r="B8" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8">
         <v>4</v>
       </c>
     </row>
@@ -7882,7 +7881,7 @@
       <c r="B9" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9">
         <v>3</v>
       </c>
     </row>
@@ -7890,7 +7889,7 @@
       <c r="B10" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10">
         <v>1</v>
       </c>
     </row>
@@ -7898,7 +7897,7 @@
       <c r="B11" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="C11" s="27">
+      <c r="C11">
         <v>1</v>
       </c>
     </row>
@@ -7906,7 +7905,7 @@
       <c r="B12" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="27">
+      <c r="C12">
         <v>1</v>
       </c>
     </row>
@@ -7914,7 +7913,7 @@
       <c r="B13" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="C13" s="27">
+      <c r="C13">
         <v>1</v>
       </c>
     </row>
@@ -7922,7 +7921,7 @@
       <c r="B14" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="C14" s="27">
+      <c r="C14">
         <v>23</v>
       </c>
     </row>
@@ -7937,7 +7936,7 @@
   <dimension ref="B1:C9"/>
   <sheetViews>
     <sheetView zoomScale="214" zoomScaleNormal="226" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -7963,7 +7962,7 @@
       <c r="B4" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4">
         <v>23</v>
       </c>
     </row>
@@ -7971,7 +7970,7 @@
       <c r="B5" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5">
         <v>17</v>
       </c>
     </row>
@@ -7979,7 +7978,7 @@
       <c r="B6" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6">
         <v>7</v>
       </c>
     </row>
@@ -7987,7 +7986,7 @@
       <c r="B7" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7">
         <v>7</v>
       </c>
     </row>
@@ -7995,7 +7994,7 @@
       <c r="B8" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8">
         <v>6</v>
       </c>
     </row>
@@ -8003,7 +8002,7 @@
       <c r="B9" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9">
         <v>60</v>
       </c>
     </row>

--- a/Service Criticality Analysis.xlsx
+++ b/Service Criticality Analysis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raheem-gsu/Documents/Github Portfolio Projects/Excel Projects/Excel-Service-Criticality-Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8DF3E75-B1B0-234C-90BC-4D35A4BA10C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{489158EA-EDBB-9B4A-89E0-6FF92808E295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{EF19B052-42A5-DD48-8A5F-251C05F1B135}"/>
   </bookViews>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -503,9 +503,6 @@
     <t>Criticality Scale</t>
   </si>
   <si>
-    <t>Which department is the most volatile in regard to the likelihood of receiving a Level 1 - 'Mission Critical' at any given time?</t>
-  </si>
-  <si>
     <t>What is the percentage distribution of criticality among services?</t>
   </si>
   <si>
@@ -522,6 +519,9 @@
   </si>
   <si>
     <t>Final Criticality Percentage</t>
+  </si>
+  <si>
+    <t>Which department is most volatile in terms of the likelihood of receiving a Level 1 'Mission Critical' at any given time?</t>
   </si>
 </sst>
 </file>
@@ -3494,8 +3494,8 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>946150</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3511,7 +3511,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1230166" y="3519439"/>
-          <a:ext cx="3957784" cy="4049761"/>
+          <a:ext cx="3957784" cy="4322811"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3689,7 +3689,23 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>- Recommendation: </a:t>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Recommendation</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>: </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -4145,7 +4161,23 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>- Recommendation: </a:t>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Recommendation</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>: </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
@@ -5055,7 +5087,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A6212BE7-3646-7243-9007-AAE905947C6C}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="13" rowHeaderCaption="Department">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A6212BE7-3646-7243-9007-AAE905947C6C}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="13" rowHeaderCaption="Department">
   <location ref="B5:C14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -5166,7 +5198,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5A88276F-804D-4247-A588-403EA0116699}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="18" rowHeaderCaption="Criticality Title">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5A88276F-804D-4247-A588-403EA0116699}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="18" rowHeaderCaption="Criticality Title">
   <location ref="B3:C9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -5689,16 +5721,16 @@
         <v>4</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J1" s="9" t="s">
         <v>144</v>
@@ -7659,7 +7691,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView zoomScale="200" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -7823,7 +7855,7 @@
   <dimension ref="B1:C14"/>
   <sheetViews>
     <sheetView zoomScale="200" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -7834,7 +7866,7 @@
   <sheetData>
     <row r="1" spans="2:3" ht="21" x14ac:dyDescent="0.25">
       <c r="B1" s="26" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
@@ -7850,7 +7882,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
@@ -7936,7 +7968,7 @@
   <dimension ref="B1:C9"/>
   <sheetViews>
     <sheetView zoomScale="214" zoomScaleNormal="226" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -7947,15 +7979,15 @@
   <sheetData>
     <row r="1" spans="2:3" ht="21" x14ac:dyDescent="0.25">
       <c r="B1" s="26" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
